--- a/Proyecto Pago Seguridad Social/django_project_pss/media/plantillas/Resumen_deducciones.xlsx
+++ b/Proyecto Pago Seguridad Social/django_project_pss/media/plantillas/Resumen_deducciones.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20340"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BEEDBD-C50A-40E4-A48B-51B5C020880D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NIT</t>
   </si>
   <si>
-    <t xml:space="preserve">RUBRO </t>
-  </si>
-  <si>
     <t>CONCEPTO</t>
   </si>
   <si>
@@ -35,12 +33,18 @@
   </si>
   <si>
     <t>UNIDAD 8</t>
+  </si>
+  <si>
+    <t>RUBRO TEMPORAL</t>
+  </si>
+  <si>
+    <t>RUBRO PERMANENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,6 +176,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -207,6 +228,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,36 +420,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
